--- a/QFD打分表/SRA2021-G03-QFD打分表0.1.xlsx
+++ b/QFD打分表/SRA2021-G03-QFD打分表0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75d9fe41a2bdcf93/2021春大三下学期/SRA/SRA2021-G03/QFD打分表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B69941932020B683756E487C8393AE9044F7EC39" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67CC40A0-F8AD-4DDC-80CE-3DE5D12D9E7F}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_B69941932020B683756E487C8393AE9044F7EC39" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E24595B-BD96-4BD9-85A4-5DB745F1B60F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -316,6 +316,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -331,10 +335,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -785,1001 +785,1001 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="11">
         <v>6</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="11">
         <v>9</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="12">
         <f t="shared" si="1"/>
         <v>3.3386327503974564E-2</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="11">
         <v>1</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="12">
         <f t="shared" si="2"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="11">
         <v>1</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="12">
         <f t="shared" si="3"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="13">
         <f t="shared" si="4"/>
         <v>0.87567567567567572</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="11">
         <v>6</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="11">
         <v>9</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="12">
         <f t="shared" si="1"/>
         <v>3.3386327503974564E-2</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="11">
         <v>2</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="12">
         <f t="shared" si="2"/>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="11">
         <v>1</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="12">
         <f t="shared" si="3"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="13">
         <f t="shared" si="4"/>
         <v>0.57827638959714434</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="11">
         <v>6</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="11">
         <v>9</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="12">
         <f t="shared" si="1"/>
         <v>3.3386327503974564E-2</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="11">
         <v>1</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="12">
         <f t="shared" si="2"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="11">
         <v>1</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="12">
         <f t="shared" si="3"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="13">
         <f t="shared" si="4"/>
         <v>0.87567567567567572</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="11">
         <v>6</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="11">
         <v>9</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="12">
         <f t="shared" si="1"/>
         <v>3.3386327503974564E-2</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="12">
         <f t="shared" si="2"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="11">
         <v>2</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="12">
         <f t="shared" si="3"/>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="13">
         <f t="shared" si="4"/>
         <v>0.58939708939708946</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="11">
         <v>9</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="11">
         <v>9</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="12">
         <f t="shared" si="1"/>
         <v>4.2925278219395867E-2</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="11">
         <v>3</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="12">
         <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="11">
         <v>2</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="12">
         <f t="shared" si="3"/>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="13">
         <f t="shared" si="4"/>
         <v>0.44778869778869779</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="11">
         <v>9</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="11">
         <v>9</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="12">
         <f t="shared" si="1"/>
         <v>4.2925278219395867E-2</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="11">
         <v>2</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="12">
         <f t="shared" si="2"/>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="11">
         <v>1</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="12">
         <f t="shared" si="3"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="13">
         <f t="shared" si="4"/>
         <v>0.74349821519632842</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="11">
         <v>9</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="11">
         <v>9</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="12">
         <f t="shared" si="1"/>
         <v>4.2925278219395867E-2</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="11">
         <v>2</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="12">
         <f t="shared" si="2"/>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="11">
         <v>1</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="12">
         <f t="shared" si="3"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="13">
         <f t="shared" si="4"/>
         <v>0.74349821519632842</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="11">
         <v>9</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="11">
         <v>9</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="12">
         <f t="shared" si="1"/>
         <v>4.2925278219395867E-2</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="11">
         <v>3</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="12">
         <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="11">
         <v>1</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="12">
         <f t="shared" si="3"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="13">
         <f t="shared" si="4"/>
         <v>0.55500570993528742</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="11">
         <v>6</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="12">
         <f t="shared" si="1"/>
         <v>3.1796502384737677E-2</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="11">
         <v>3</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="12">
         <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="11">
         <v>1</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="12">
         <f t="shared" si="3"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="13">
         <f t="shared" si="4"/>
         <v>0.41111534069280548</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="11">
         <v>7</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="11">
         <v>6</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="12">
         <f t="shared" si="1"/>
         <v>3.1796502384737677E-2</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="11">
         <v>1</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="12">
         <f t="shared" si="2"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="11">
         <v>3</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="12">
         <f t="shared" si="3"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="13">
         <f t="shared" si="4"/>
         <v>0.42303172737955347</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="11">
         <v>7</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="11">
         <v>6</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="12">
         <f t="shared" si="1"/>
         <v>3.1796502384737677E-2</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="11">
         <v>1</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="12">
         <f t="shared" si="2"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="11">
         <v>2</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="12">
         <f t="shared" si="3"/>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="13">
         <f t="shared" si="4"/>
         <v>0.56133056133056136</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="11">
         <v>7</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="11">
         <v>6</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="12">
         <f t="shared" si="1"/>
         <v>3.1796502384737677E-2</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="11">
         <v>1</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="12">
         <f t="shared" si="2"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="11">
         <v>2</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="12">
         <f t="shared" si="3"/>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="13">
         <f t="shared" si="4"/>
         <v>0.56133056133056136</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="11">
         <v>7</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="11">
         <v>6</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="12">
         <f t="shared" si="1"/>
         <v>3.1796502384737677E-2</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="11">
         <v>2</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="12">
         <f t="shared" si="2"/>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="11">
         <v>3</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="12">
         <f t="shared" si="3"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="13">
         <f t="shared" si="4"/>
         <v>0.33550792171481825</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="11">
         <v>7</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="11">
         <v>6</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="12">
         <f t="shared" si="1"/>
         <v>3.1796502384737677E-2</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="11">
         <v>1</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="12">
         <f t="shared" si="2"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="11">
         <v>2</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="12">
         <f t="shared" si="3"/>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="13">
         <f t="shared" si="4"/>
         <v>0.56133056133056136</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="11">
         <v>7</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="11">
         <v>6</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="12">
         <f t="shared" si="1"/>
         <v>3.1796502384737677E-2</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="11">
         <v>1</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="12">
         <f t="shared" si="2"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="11">
         <v>2</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="12">
         <f t="shared" si="3"/>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="13">
         <f t="shared" si="4"/>
         <v>0.56133056133056136</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="11">
         <v>7</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="11">
         <v>6</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="12">
         <f t="shared" si="1"/>
         <v>3.1796502384737677E-2</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="11">
         <v>2</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="12">
         <f t="shared" si="2"/>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="11">
         <v>1</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="12">
         <f t="shared" si="3"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="13">
         <f t="shared" si="4"/>
         <v>0.55073941866394693</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="11">
         <v>8</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="11">
         <v>4</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="12">
         <f t="shared" si="1"/>
         <v>3.1796502384737677E-2</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="11">
         <v>1</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="12">
         <f t="shared" si="2"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="11">
         <v>1</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="12">
         <f t="shared" si="3"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="13">
         <f t="shared" si="4"/>
         <v>0.83397683397683398</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="11">
         <v>8</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="11">
         <v>4</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="12">
         <f t="shared" si="1"/>
         <v>3.1796502384737677E-2</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="11">
         <v>1</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="12">
         <f t="shared" si="2"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="11">
         <v>2</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="12">
         <f t="shared" si="3"/>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="13">
         <f t="shared" si="4"/>
         <v>0.56133056133056136</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="11">
         <v>8</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="11">
         <v>3</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="12">
         <f t="shared" si="1"/>
         <v>3.0206677265500796E-2</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="11">
         <v>2</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="12">
         <f t="shared" si="2"/>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="11">
         <v>1</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="12">
         <f t="shared" si="3"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="13">
         <f t="shared" si="4"/>
         <v>0.52320244773074964</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="11">
         <v>3</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="11">
         <v>3</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="12">
         <f t="shared" si="1"/>
         <v>1.4308426073131956E-2</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="11">
         <v>1</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="12">
         <f t="shared" si="2"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="11">
         <v>1</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="12">
         <f t="shared" si="3"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="13">
         <f t="shared" si="4"/>
         <v>0.37528957528957529</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="11">
         <v>3</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="11">
         <v>3</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="12">
         <f t="shared" si="1"/>
         <v>1.4308426073131956E-2</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="11">
         <v>1</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="12">
         <f t="shared" si="2"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="11">
         <v>1</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="12">
         <f t="shared" si="3"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="13">
         <f t="shared" si="4"/>
         <v>0.37528957528957529</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="11">
         <v>2</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="11">
         <v>2</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="12">
         <f t="shared" si="1"/>
         <v>9.538950715421303E-3</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="11">
         <v>1</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="12">
         <f t="shared" si="2"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="11">
         <v>1</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="12">
         <f t="shared" si="3"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="13">
         <f t="shared" si="4"/>
         <v>0.25019305019305016</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="11">
         <v>2</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="11">
         <v>2</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="12">
         <f t="shared" si="1"/>
         <v>9.538950715421303E-3</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="11">
         <v>1</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="12">
         <f t="shared" si="2"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="11">
         <v>2</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="12">
         <f t="shared" si="3"/>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="13">
         <f t="shared" si="4"/>
         <v>0.16839916839916838</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="11">
         <v>1</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="11">
         <v>1</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="12">
         <f t="shared" si="1"/>
         <v>4.7694753577106515E-3</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="11">
         <v>2</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="12">
         <f t="shared" si="2"/>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="11">
         <v>2</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="12">
         <f t="shared" si="3"/>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="13">
         <f t="shared" si="4"/>
         <v>6.254826254826254E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="11">
         <v>8</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="11">
         <v>4</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="12">
         <f t="shared" si="1"/>
         <v>3.1796502384737677E-2</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="11">
         <v>3</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="12">
         <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="11">
         <v>1</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="12">
         <f t="shared" si="3"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="13">
         <f t="shared" si="4"/>
         <v>0.41111534069280548</v>
       </c>
@@ -1985,10 +1985,10 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="3">
         <f>SUM(C2:C34)</f>
         <v>213</v>
@@ -2024,19 +2024,19 @@
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
@@ -3908,6 +3908,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>